--- a/Planning/gantt_chart_3.xlsx
+++ b/Planning/gantt_chart_3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FFFD2F-68DF-47EB-B103-3FD206A09F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D67AEB-5EFA-423E-966C-8C9937937ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,14 +207,14 @@
     <t xml:space="preserve">Data acquisition </t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Uncertainty analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -314,6 +314,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -358,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -443,6 +450,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -501,7 +660,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,18 +679,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -606,6 +753,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1016,10 +1217,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AX18"/>
+  <dimension ref="B1:AX19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1035,122 +1236,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:50" ht="60" customHeight="1" x14ac:dyDescent="1.2">
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:50" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="23" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="23" t="s">
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
     </row>
-    <row r="3" spans="2:50" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:50" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="2:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3">
         <v>37</v>
       </c>
@@ -1281,265 +1482,287 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="32">
         <v>37</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="32">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="32">
         <v>37</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="32">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="32">
         <v>37</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="32">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="32">
         <v>37</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="32">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="32">
         <v>39</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="32">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="32">
         <v>40</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="32">
         <v>5</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="32">
         <v>40</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="32">
         <v>4</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="32">
         <v>40</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8">
-        <v>0</v>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:50" ht="34" x14ac:dyDescent="0.35">
+      <c r="B9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="32">
         <v>41</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="32">
         <v>2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="32">
         <v>43</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="32">
         <v>2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:50" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="32">
         <v>43</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="32">
         <v>2</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
-        <v>0</v>
+      <c r="E10" s="32">
+        <v>45</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:50" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="32">
         <v>45</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="32">
         <v>4</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="32">
         <v>41</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
-        <v>0</v>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="46">
+        <v>47</v>
+      </c>
+      <c r="D12" s="41">
+        <v>3</v>
+      </c>
+      <c r="E12" s="41">
+        <v>47</v>
+      </c>
+      <c r="F12" s="41">
+        <v>0</v>
+      </c>
+      <c r="G12" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="32">
         <v>49</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="32">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
+    <row r="14" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C14" s="32">
+        <v>37</v>
+      </c>
+      <c r="D14" s="32">
+        <v>16</v>
+      </c>
+      <c r="E14" s="32">
+        <v>37</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="38">
         <v>1</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
-        <v>0.1</v>
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
+    <row r="16" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="C16" s="46">
+        <v>0</v>
+      </c>
+      <c r="D16" s="41">
+        <v>0</v>
+      </c>
+      <c r="E16" s="41">
+        <v>0</v>
+      </c>
+      <c r="F16" s="41">
+        <v>0</v>
+      </c>
+      <c r="G16" s="42">
         <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.5</v>
+      <c r="B17" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="41">
+        <v>0</v>
+      </c>
+      <c r="D17" s="41">
+        <v>0</v>
+      </c>
+      <c r="E17" s="41">
+        <v>0</v>
+      </c>
+      <c r="F17" s="41">
+        <v>0</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="41">
+        <v>0</v>
+      </c>
+      <c r="D18" s="41">
+        <v>0</v>
+      </c>
+      <c r="E18" s="41">
+        <v>0</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="C19" s="44">
+        <v>0</v>
+      </c>
+      <c r="D19" s="44">
+        <v>0</v>
+      </c>
+      <c r="E19" s="44">
+        <v>0</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0</v>
+      </c>
+      <c r="G19" s="45">
         <v>0</v>
       </c>
     </row>
@@ -1557,7 +1780,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B19:AX19">
+  <conditionalFormatting sqref="B20:AX20">
     <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -1567,7 +1790,7 @@
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:AX18">
+  <conditionalFormatting sqref="H5:AX19">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1593,7 +1816,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations disablePrompts="1" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>

--- a/Planning/gantt_chart_3.xlsx
+++ b/Planning/gantt_chart_3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D67AEB-5EFA-423E-966C-8C9937937ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B53CD1-9BCC-4D7F-AA6C-7488B67F562D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>Clean up</t>
   </si>
   <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
     <t>Activity 12</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Uncertainty analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure sensor </t>
   </si>
 </sst>
 </file>
@@ -718,6 +718,60 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -753,60 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1219,8 +1219,8 @@
   </sheetPr>
   <dimension ref="B1:AX19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1260,66 +1260,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="46"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="30"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="48"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="30"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="48"/>
       <c r="AH2" s="16"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
     </row>
     <row r="3" spans="2:50" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="43" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1346,12 +1346,12 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="2:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="3">
         <v>37</v>
       </c>
@@ -1483,286 +1483,292 @@
       </c>
     </row>
     <row r="5" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="20">
         <v>37</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="20">
         <v>37</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="20">
         <v>1</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="20">
         <v>37</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="20">
         <v>37</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="20">
         <v>1</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="B7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="20">
         <v>39</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="20">
         <v>4</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="20">
         <v>40</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="20">
         <v>5</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="B8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="20">
         <v>40</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="20">
         <v>4</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="20">
         <v>40</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33">
-        <v>0.5</v>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21">
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="2:50" ht="34" x14ac:dyDescent="0.35">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="20">
         <v>41</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="20">
         <v>43</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="20">
         <v>2</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:50" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="20">
         <v>43</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="20">
         <v>2</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="20">
         <v>45</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33">
+      <c r="F10" s="20"/>
+      <c r="G10" s="21">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="2:50" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="20">
         <v>45</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="20">
         <v>4</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="20">
         <v>41</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33">
-        <v>0.4</v>
+      <c r="F11" s="20">
+        <v>49</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="46">
+      <c r="B12" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="34">
         <v>47</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="29">
         <v>3</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="29">
         <v>47</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="29">
         <v>0</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="20">
         <v>49</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="20">
         <v>2</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33">
-        <v>0</v>
+      <c r="E13" s="20">
+        <v>48</v>
+      </c>
+      <c r="F13" s="20">
+        <v>49</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="20">
         <v>37</v>
       </c>
-      <c r="D14" s="32">
-        <v>16</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="D14" s="20">
+        <v>15</v>
+      </c>
+      <c r="E14" s="20">
         <v>37</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33">
+      <c r="F14" s="20"/>
+      <c r="G14" s="21">
         <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="26">
         <v>1</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="26">
         <v>1</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="46">
-        <v>0</v>
-      </c>
-      <c r="D16" s="41">
-        <v>0</v>
-      </c>
-      <c r="E16" s="41">
-        <v>0</v>
-      </c>
-      <c r="F16" s="41">
-        <v>0</v>
-      </c>
-      <c r="G16" s="42">
-        <v>0.6</v>
+      <c r="B16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="34">
+        <v>48</v>
+      </c>
+      <c r="D16" s="29">
+        <v>2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>48</v>
+      </c>
+      <c r="F16" s="29">
+        <v>2</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="41">
+      <c r="B17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="29">
         <v>0</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="29">
         <v>0</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="29">
         <v>0</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="29">
         <v>0</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="41">
+      <c r="B18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="29">
         <v>0</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="29">
         <v>0</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="29">
         <v>0</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="29">
         <v>0</v>
       </c>
-      <c r="G18" s="42">
-        <v>0.5</v>
+      <c r="G18" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="44">
+      <c r="B19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="32">
         <v>0</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="32">
         <v>0</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="32">
         <v>0</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="32">
         <v>0</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="33">
         <v>0</v>
       </c>
     </row>
